--- a/La.WebApi/wwwroot/ImportTemplate/user.xlsx
+++ b/La.WebApi/wwwroot/ImportTemplate/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZrAdminNet\ZR.Admin.WebApi\wwwroot\importTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruirui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81410F62-990D-472A-9824-DE7752461CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D25C5-7ED0-4C8A-946A-082A9379CFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户列表" sheetId="1" r:id="rId1"/>
@@ -26,20 +26,32 @@
     <author>tc={719500D5-7E9C-4D0E-81A5-442C098E5A44}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{464F6926-32F1-4D54-B20E-18CFFA8CD04F}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{464F6926-32F1-4D54-B20E-18CFFA8CD04F}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     登录用户名：eg：admin，lisa</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{719500D5-7E9C-4D0E-81A5-442C098E5A44}">
+    <comment ref="E3" authorId="1" shapeId="0" xr:uid="{719500D5-7E9C-4D0E-81A5-442C098E5A44}">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     性别 1、男 0、女</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -47,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -78,12 +90,32 @@
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -105,16 +137,42 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,28 +180,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -162,15 +356,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NickName"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Phonenumber"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sex"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Remark"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="用户名"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="昵称"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="邮件"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="手机号"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="性别"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -184,7 +378,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -484,57 +678,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="1"/>
-    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>18600000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
